--- a/Casos de Prueba (Agustin Togni).xlsx
+++ b/Casos de Prueba (Agustin Togni).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agustin\Desktop\Trabajo Final Coder (Agustin Togni)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agustin\Documents\A- Steam\AA- Mi vida\Tester QA\Coderhouse\Tester QA\Trabajo Final Coder (Agustin Togni)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0ED86FE-404E-4010-8E2E-E890A4010E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61EAD44-4FEA-4FCD-A73F-159307B101F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CF77210-3DB5-4DE8-AE2B-3CD5B9BCFE2C}"/>
   </bookViews>
@@ -681,7 +681,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -689,28 +689,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -722,18 +716,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -743,64 +725,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1119,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB0E70D-7AEF-47BF-ABA9-85E9543DF32A}">
   <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H81" sqref="H81"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1136,13 +1097,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1171,22 +1132,22 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="3">
@@ -1198,7 +1159,7 @@
       <c r="I2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="15" t="s">
         <v>29</v>
       </c>
       <c r="K2" s="6" t="s">
@@ -1206,12 +1167,12 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="3">
         <v>2</v>
       </c>
@@ -1221,18 +1182,18 @@
       <c r="I3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="30"/>
+      <c r="J3" s="15"/>
       <c r="K3" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="3">
         <v>3</v>
       </c>
@@ -1242,18 +1203,18 @@
       <c r="I4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="30"/>
+      <c r="J4" s="15"/>
       <c r="K4" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="3">
         <v>4</v>
       </c>
@@ -1263,18 +1224,18 @@
       <c r="I5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="30"/>
+      <c r="J5" s="15"/>
       <c r="K5" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
       <c r="G6" s="3">
         <v>5</v>
       </c>
@@ -1284,18 +1245,18 @@
       <c r="I6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="30"/>
+      <c r="J6" s="15"/>
       <c r="K6" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="3">
         <v>6</v>
       </c>
@@ -1305,18 +1266,18 @@
       <c r="I7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="30"/>
+      <c r="J7" s="15"/>
       <c r="K7" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="4">
         <v>7</v>
       </c>
@@ -1326,18 +1287,18 @@
       <c r="I8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="30"/>
+      <c r="J8" s="15"/>
       <c r="K8" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="5">
         <v>8</v>
       </c>
@@ -1347,53 +1308,53 @@
       <c r="I9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="8" t="s">
+      <c r="J9" s="14"/>
+      <c r="K9" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="10">
         <v>1</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="29" t="s">
+      <c r="J10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="3">
         <v>2</v>
       </c>
@@ -1403,18 +1364,18 @@
       <c r="I11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="30"/>
+      <c r="J11" s="15"/>
       <c r="K11" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
       <c r="G12" s="3">
         <v>3</v>
       </c>
@@ -1424,18 +1385,18 @@
       <c r="I12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J12" s="30"/>
+      <c r="J12" s="15"/>
       <c r="K12" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
       <c r="G13" s="3">
         <v>4</v>
       </c>
@@ -1445,18 +1406,18 @@
       <c r="I13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="30"/>
+      <c r="J13" s="15"/>
       <c r="K13" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
       <c r="G14" s="3">
         <v>5</v>
       </c>
@@ -1466,18 +1427,18 @@
       <c r="I14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="30"/>
+      <c r="J14" s="15"/>
       <c r="K14" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="3">
         <v>6</v>
       </c>
@@ -1487,18 +1448,18 @@
       <c r="I15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="30"/>
+      <c r="J15" s="15"/>
       <c r="K15" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
       <c r="G16" s="2">
         <v>7</v>
       </c>
@@ -1508,53 +1469,53 @@
       <c r="I16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J16" s="31"/>
-      <c r="K16" s="8" t="s">
+      <c r="J16" s="14"/>
+      <c r="K16" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="F17" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="10">
         <v>1</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="29" t="s">
+      <c r="J17" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="K17" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
       <c r="G18" s="3">
         <v>2</v>
       </c>
@@ -1564,18 +1525,18 @@
       <c r="I18" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J18" s="30"/>
+      <c r="J18" s="15"/>
       <c r="K18" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
       <c r="G19" s="3">
         <v>3</v>
       </c>
@@ -1585,18 +1546,18 @@
       <c r="I19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J19" s="30"/>
+      <c r="J19" s="15"/>
       <c r="K19" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
       <c r="G20" s="3">
         <v>4</v>
       </c>
@@ -1606,18 +1567,18 @@
       <c r="I20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J20" s="30"/>
+      <c r="J20" s="15"/>
       <c r="K20" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
       <c r="G21" s="2">
         <v>5</v>
       </c>
@@ -1627,54 +1588,54 @@
       <c r="I21" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J21" s="31"/>
-      <c r="K21" s="8" t="s">
+      <c r="J21" s="14"/>
+      <c r="K21" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="29" t="s">
+      <c r="E22" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="10">
         <v>1</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="I22" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="29" t="s">
+      <c r="J22" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="K22" s="13" t="s">
+      <c r="K22" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="10">
+      <c r="A23" s="25"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="3">
         <v>2</v>
       </c>
       <c r="H23" s="3" t="s">
@@ -1683,19 +1644,19 @@
       <c r="I23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J23" s="30"/>
+      <c r="J23" s="15"/>
       <c r="K23" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="10">
+      <c r="A24" s="25"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="3">
         <v>3</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -1704,19 +1665,19 @@
       <c r="I24" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J24" s="30"/>
+      <c r="J24" s="15"/>
       <c r="K24" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="17">
+      <c r="A25" s="26"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="2">
         <v>4</v>
       </c>
       <c r="H25" s="2" t="s">
@@ -1725,54 +1686,54 @@
       <c r="I25" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J25" s="31"/>
-      <c r="K25" s="8" t="s">
+      <c r="J25" s="14"/>
+      <c r="K25" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="29" t="s">
+      <c r="E26" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="29" t="s">
+      <c r="F26" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="3">
         <v>1</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="H26" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="I26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="29" t="s">
+      <c r="J26" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="K26" s="13" t="s">
+      <c r="K26" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="10">
+      <c r="A27" s="25"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="3">
         <v>2</v>
       </c>
       <c r="H27" s="3" t="s">
@@ -1781,19 +1742,19 @@
       <c r="I27" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J27" s="30"/>
+      <c r="J27" s="15"/>
       <c r="K27" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="10">
+      <c r="A28" s="25"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="3">
         <v>3</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -1802,19 +1763,19 @@
       <c r="I28" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J28" s="30"/>
+      <c r="J28" s="15"/>
       <c r="K28" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="10">
+      <c r="A29" s="25"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="3">
         <v>4</v>
       </c>
       <c r="H29" s="3" t="s">
@@ -1823,19 +1784,19 @@
       <c r="I29" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J29" s="30"/>
+      <c r="J29" s="15"/>
       <c r="K29" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="17">
+      <c r="A30" s="26"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="2">
         <v>5</v>
       </c>
       <c r="H30" s="2" t="s">
@@ -1844,54 +1805,54 @@
       <c r="I30" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="J30" s="31"/>
-      <c r="K30" s="18" t="s">
+      <c r="J30" s="14"/>
+      <c r="K30" s="12" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E31" s="29" t="s">
+      <c r="E31" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="29" t="s">
+      <c r="F31" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="3">
         <v>1</v>
       </c>
-      <c r="H31" s="12" t="s">
+      <c r="H31" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="11" t="s">
+      <c r="I31" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J31" s="29" t="s">
+      <c r="J31" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="K31" s="13" t="s">
+      <c r="K31" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="10">
+      <c r="A32" s="25"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="3">
         <v>2</v>
       </c>
       <c r="H32" s="3" t="s">
@@ -1900,19 +1861,19 @@
       <c r="I32" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J32" s="30"/>
+      <c r="J32" s="15"/>
       <c r="K32" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="10">
+      <c r="A33" s="25"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="3">
         <v>3</v>
       </c>
       <c r="H33" s="3" t="s">
@@ -1921,19 +1882,19 @@
       <c r="I33" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J33" s="30"/>
+      <c r="J33" s="15"/>
       <c r="K33" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="10">
+      <c r="A34" s="25"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="3">
         <v>4</v>
       </c>
       <c r="H34" s="3" t="s">
@@ -1942,19 +1903,19 @@
       <c r="I34" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J34" s="30"/>
+      <c r="J34" s="15"/>
       <c r="K34" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="36"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="17">
+      <c r="A35" s="26"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="2">
         <v>5</v>
       </c>
       <c r="H35" s="2" t="s">
@@ -1963,54 +1924,54 @@
       <c r="I35" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="J35" s="31"/>
-      <c r="K35" s="18" t="s">
+      <c r="J35" s="14"/>
+      <c r="K35" s="12" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="D36" s="29" t="s">
+      <c r="D36" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="29" t="s">
+      <c r="E36" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F36" s="29" t="s">
+      <c r="F36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G36" s="10">
         <v>1</v>
       </c>
-      <c r="H36" s="12" t="s">
+      <c r="H36" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I36" s="11" t="s">
+      <c r="I36" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J36" s="37" t="s">
+      <c r="J36" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="K36" s="13" t="s">
+      <c r="K36" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="35"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="10">
+      <c r="A37" s="25"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="3">
         <v>2</v>
       </c>
       <c r="H37" s="3" t="s">
@@ -2019,19 +1980,19 @@
       <c r="I37" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J37" s="38"/>
+      <c r="J37" s="23"/>
       <c r="K37" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="35"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="10">
+      <c r="A38" s="25"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="3">
         <v>3</v>
       </c>
       <c r="H38" s="3" t="s">
@@ -2040,19 +2001,19 @@
       <c r="I38" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J38" s="38"/>
+      <c r="J38" s="23"/>
       <c r="K38" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="36"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="17">
+      <c r="A39" s="26"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="2">
         <v>4</v>
       </c>
       <c r="H39" s="2" t="s">
@@ -2061,54 +2022,54 @@
       <c r="I39" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="J39" s="39"/>
-      <c r="K39" s="8" t="s">
+      <c r="J39" s="24"/>
+      <c r="K39" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="34" t="s">
+      <c r="A40" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C40" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="29" t="s">
+      <c r="D40" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E40" s="29" t="s">
+      <c r="E40" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F40" s="29" t="s">
+      <c r="F40" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G40" s="16">
+      <c r="G40" s="10">
         <v>1</v>
       </c>
-      <c r="H40" s="12" t="s">
+      <c r="H40" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I40" s="11" t="s">
+      <c r="I40" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J40" s="29" t="s">
+      <c r="J40" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="K40" s="13" t="s">
+      <c r="K40" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="10">
+      <c r="A41" s="25"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="3">
         <v>2</v>
       </c>
       <c r="H41" s="3" t="s">
@@ -2117,19 +2078,19 @@
       <c r="I41" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J41" s="30"/>
+      <c r="J41" s="15"/>
       <c r="K41" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="35"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="10">
+      <c r="A42" s="25"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="3">
         <v>3</v>
       </c>
       <c r="H42" s="3" t="s">
@@ -2138,19 +2099,19 @@
       <c r="I42" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J42" s="30"/>
+      <c r="J42" s="15"/>
       <c r="K42" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="35"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="10">
+      <c r="A43" s="25"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="3">
         <v>4</v>
       </c>
       <c r="H43" s="3" t="s">
@@ -2159,19 +2120,19 @@
       <c r="I43" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J43" s="30"/>
+      <c r="J43" s="15"/>
       <c r="K43" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="36"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="17">
+      <c r="A44" s="26"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="2">
         <v>5</v>
       </c>
       <c r="H44" s="2" t="s">
@@ -2180,96 +2141,96 @@
       <c r="I44" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="J44" s="31"/>
-      <c r="K44" s="8" t="s">
+      <c r="J44" s="14"/>
+      <c r="K44" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="32" t="s">
+      <c r="A45" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="C45" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D45" s="29" t="s">
+      <c r="D45" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="E45" s="29" t="s">
+      <c r="E45" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F45" s="29" t="s">
+      <c r="F45" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G45" s="16">
+      <c r="G45" s="10">
         <v>1</v>
       </c>
-      <c r="H45" s="11" t="s">
+      <c r="H45" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="I45" s="11" t="s">
+      <c r="I45" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J45" s="29" t="s">
+      <c r="J45" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="K45" s="13" t="s">
+      <c r="K45" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="33"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="17">
+      <c r="A46" s="21"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="2">
         <v>2</v>
       </c>
-      <c r="H46" s="15" t="s">
+      <c r="H46" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I46" s="15" t="s">
+      <c r="I46" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J46" s="31"/>
-      <c r="K46" s="8" t="s">
+      <c r="J46" s="14"/>
+      <c r="K46" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="40" t="s">
+      <c r="A47" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="D47" s="30" t="s">
+      <c r="D47" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E47" s="30" t="s">
+      <c r="E47" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F47" s="30" t="s">
+      <c r="F47" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G47" s="3">
         <v>1</v>
       </c>
-      <c r="H47" s="11" t="s">
+      <c r="H47" s="9" t="s">
         <v>124</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J47" s="30" t="s">
+      <c r="J47" s="15" t="s">
         <v>54</v>
       </c>
       <c r="K47" s="6" t="s">
@@ -2277,76 +2238,76 @@
       </c>
     </row>
     <row r="48" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="10">
+      <c r="A48" s="20"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="3">
         <v>2</v>
       </c>
-      <c r="H48" s="10" t="s">
+      <c r="H48" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="I48" s="23" t="s">
+      <c r="I48" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="J48" s="30"/>
+      <c r="J48" s="15"/>
       <c r="K48" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="33"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="17">
+      <c r="A49" s="21"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="2">
         <v>3</v>
       </c>
-      <c r="H49" s="17" t="s">
+      <c r="H49" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I49" s="24" t="s">
+      <c r="I49" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="J49" s="31"/>
-      <c r="K49" s="8" t="s">
+      <c r="J49" s="14"/>
+      <c r="K49" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="32" t="s">
+      <c r="A50" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C50" s="29" t="s">
+      <c r="C50" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D50" s="29" t="s">
+      <c r="D50" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E50" s="29" t="s">
+      <c r="E50" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F50" s="29" t="s">
+      <c r="F50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G50" s="3">
         <v>1</v>
       </c>
-      <c r="H50" s="11" t="s">
+      <c r="H50" s="9" t="s">
         <v>124</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J50" s="30" t="s">
+      <c r="J50" s="15" t="s">
         <v>54</v>
       </c>
       <c r="K50" s="6" t="s">
@@ -2354,76 +2315,76 @@
       </c>
     </row>
     <row r="51" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="40"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="10">
+      <c r="A51" s="20"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="3">
         <v>2</v>
       </c>
-      <c r="H51" s="10" t="s">
+      <c r="H51" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="I51" s="23" t="s">
+      <c r="I51" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="J51" s="30"/>
+      <c r="J51" s="15"/>
       <c r="K51" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="33"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="17">
+      <c r="A52" s="21"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="2">
         <v>3</v>
       </c>
-      <c r="H52" s="17" t="s">
+      <c r="H52" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I52" s="24" t="s">
+      <c r="I52" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="J52" s="31"/>
-      <c r="K52" s="8" t="s">
+      <c r="J52" s="14"/>
+      <c r="K52" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="32" t="s">
+      <c r="A53" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="37" t="s">
+      <c r="C53" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="D53" s="29" t="s">
+      <c r="D53" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E53" s="29" t="s">
+      <c r="E53" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F53" s="29" t="s">
+      <c r="F53" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="10">
+      <c r="G53" s="3">
         <v>1</v>
       </c>
-      <c r="H53" s="11" t="s">
+      <c r="H53" s="9" t="s">
         <v>124</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J53" s="29" t="s">
+      <c r="J53" s="13" t="s">
         <v>29</v>
       </c>
       <c r="K53" s="6" t="s">
@@ -2431,55 +2392,55 @@
       </c>
     </row>
     <row r="54" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="33"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="17">
+      <c r="A54" s="21"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="2">
         <v>2</v>
       </c>
-      <c r="H54" s="15" t="s">
+      <c r="H54" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I54" s="15" t="s">
+      <c r="I54" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J54" s="31"/>
-      <c r="K54" s="8" t="s">
+      <c r="J54" s="14"/>
+      <c r="K54" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="32" t="s">
+      <c r="A55" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="37" t="s">
+      <c r="C55" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="D55" s="29" t="s">
+      <c r="D55" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E55" s="29" t="s">
+      <c r="E55" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F55" s="29" t="s">
+      <c r="F55" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G55" s="16">
+      <c r="G55" s="10">
         <v>1</v>
       </c>
-      <c r="H55" s="11" t="s">
+      <c r="H55" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="I55" s="11" t="s">
+      <c r="I55" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J55" s="29" t="s">
+      <c r="J55" s="13" t="s">
         <v>29</v>
       </c>
       <c r="K55" s="6" t="s">
@@ -2487,720 +2448,720 @@
       </c>
     </row>
     <row r="56" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="40"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="10">
+      <c r="A56" s="20"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="3">
         <v>2</v>
       </c>
-      <c r="H56" s="14" t="s">
+      <c r="H56" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I56" s="14" t="s">
+      <c r="I56" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="J56" s="30"/>
+      <c r="J56" s="15"/>
       <c r="K56" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="33"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="17">
+      <c r="A57" s="21"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="2">
         <v>3</v>
       </c>
-      <c r="H57" s="24" t="s">
+      <c r="H57" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="I57" s="24" t="s">
+      <c r="I57" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="J57" s="31"/>
-      <c r="K57" s="8" t="s">
+      <c r="J57" s="14"/>
+      <c r="K57" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="40" t="s">
+      <c r="A58" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="B58" s="30" t="s">
+      <c r="B58" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C58" s="29" t="s">
+      <c r="C58" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="D58" s="30" t="s">
+      <c r="D58" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="E58" s="29" t="s">
+      <c r="E58" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F58" s="29" t="s">
+      <c r="F58" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G58" s="16">
+      <c r="G58" s="10">
         <v>1</v>
       </c>
-      <c r="H58" s="11" t="s">
+      <c r="H58" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="I58" s="11" t="s">
+      <c r="I58" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J58" s="29" t="s">
+      <c r="J58" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="K58" s="13" t="s">
+      <c r="K58" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="40"/>
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="10">
+      <c r="A59" s="20"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="3">
         <v>2</v>
       </c>
-      <c r="H59" s="10" t="s">
+      <c r="H59" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="I59" s="23" t="s">
+      <c r="I59" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J59" s="30"/>
+      <c r="J59" s="15"/>
       <c r="K59" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="40"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="10">
+      <c r="A60" s="20"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="3">
         <v>3</v>
       </c>
-      <c r="H60" s="23" t="s">
+      <c r="H60" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I60" s="23" t="s">
+      <c r="I60" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="J60" s="30"/>
+      <c r="J60" s="15"/>
       <c r="K60" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
-      <c r="B61" s="30"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="10">
+      <c r="A61" s="20"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="3">
         <v>4</v>
       </c>
-      <c r="H61" s="14" t="s">
+      <c r="H61" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I61" s="14" t="s">
+      <c r="I61" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J61" s="30"/>
+      <c r="J61" s="15"/>
       <c r="K61" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="33"/>
-      <c r="B62" s="31"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="17">
+      <c r="A62" s="21"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="2">
         <v>5</v>
       </c>
-      <c r="H62" s="24" t="s">
+      <c r="H62" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="I62" s="24" t="s">
+      <c r="I62" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="J62" s="31"/>
-      <c r="K62" s="8" t="s">
+      <c r="J62" s="14"/>
+      <c r="K62" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="40" t="s">
+      <c r="A63" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B63" s="30" t="s">
+      <c r="B63" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="29" t="s">
+      <c r="C63" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="D63" s="30" t="s">
+      <c r="D63" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="E63" s="29" t="s">
+      <c r="E63" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F63" s="29" t="s">
+      <c r="F63" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G63" s="16">
+      <c r="G63" s="10">
         <v>1</v>
       </c>
-      <c r="H63" s="11" t="s">
+      <c r="H63" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="I63" s="11" t="s">
+      <c r="I63" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J63" s="29" t="s">
+      <c r="J63" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="K63" s="13" t="s">
+      <c r="K63" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="40"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="10">
+      <c r="A64" s="20"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="3">
         <v>2</v>
       </c>
-      <c r="H64" s="10" t="s">
+      <c r="H64" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="I64" s="23" t="s">
+      <c r="I64" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J64" s="30"/>
+      <c r="J64" s="15"/>
       <c r="K64" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="40"/>
-      <c r="B65" s="30"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="10">
+      <c r="A65" s="20"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="3">
         <v>3</v>
       </c>
-      <c r="H65" s="23" t="s">
+      <c r="H65" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I65" s="23" t="s">
+      <c r="I65" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="J65" s="30"/>
+      <c r="J65" s="15"/>
       <c r="K65" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="40"/>
-      <c r="B66" s="30"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="10">
+      <c r="A66" s="20"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="3">
         <v>4</v>
       </c>
-      <c r="H66" s="14" t="s">
+      <c r="H66" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I66" s="14" t="s">
+      <c r="I66" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J66" s="30"/>
+      <c r="J66" s="15"/>
       <c r="K66" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="33"/>
-      <c r="B67" s="31"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="17">
+      <c r="A67" s="21"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="2">
         <v>5</v>
       </c>
-      <c r="H67" s="24" t="s">
+      <c r="H67" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="I67" s="24" t="s">
+      <c r="I67" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="J67" s="31"/>
-      <c r="K67" s="8" t="s">
+      <c r="J67" s="14"/>
+      <c r="K67" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="32" t="s">
+      <c r="A68" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B68" s="29" t="s">
+      <c r="B68" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C68" s="29" t="s">
+      <c r="C68" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="D68" s="29" t="s">
+      <c r="D68" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="E68" s="29" t="s">
+      <c r="E68" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F68" s="29" t="s">
+      <c r="F68" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="G68" s="16">
+      <c r="G68" s="10">
         <v>1</v>
       </c>
-      <c r="H68" s="11" t="s">
+      <c r="H68" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="I68" s="11" t="s">
+      <c r="I68" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J68" s="29" t="s">
+      <c r="J68" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="K68" s="13" t="s">
+      <c r="K68" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="40"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="10">
+      <c r="A69" s="20"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="3">
         <v>2</v>
       </c>
-      <c r="H69" s="23" t="s">
+      <c r="H69" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I69" s="23" t="s">
+      <c r="I69" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J69" s="30"/>
+      <c r="J69" s="15"/>
       <c r="K69" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="40"/>
-      <c r="B70" s="30"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="30"/>
-      <c r="F70" s="30"/>
-      <c r="G70" s="10">
+      <c r="A70" s="20"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="3">
         <v>3</v>
       </c>
-      <c r="H70" s="23" t="s">
+      <c r="H70" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I70" s="23" t="s">
+      <c r="I70" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="J70" s="30"/>
+      <c r="J70" s="15"/>
       <c r="K70" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="40"/>
-      <c r="B71" s="30"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="10">
+      <c r="A71" s="20"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="3">
         <v>4</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="I71" s="14" t="s">
+      <c r="I71" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J71" s="30"/>
+      <c r="J71" s="15"/>
       <c r="K71" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="33"/>
-      <c r="B72" s="31"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="31"/>
-      <c r="F72" s="31"/>
-      <c r="G72" s="17">
+      <c r="A72" s="21"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="2">
         <v>5</v>
       </c>
-      <c r="H72" s="24" t="s">
+      <c r="H72" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="I72" s="24" t="s">
+      <c r="I72" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="J72" s="31"/>
-      <c r="K72" s="8" t="s">
+      <c r="J72" s="14"/>
+      <c r="K72" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="26" t="s">
+      <c r="A73" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B73" s="29" t="s">
+      <c r="B73" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C73" s="29" t="s">
+      <c r="C73" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D73" s="29" t="s">
+      <c r="D73" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="E73" s="29" t="s">
+      <c r="E73" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F73" s="29" t="s">
+      <c r="F73" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G73" s="16">
+      <c r="G73" s="10">
         <v>1</v>
       </c>
-      <c r="H73" s="25" t="s">
+      <c r="H73" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="I73" s="11" t="s">
+      <c r="I73" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J73" s="29" t="s">
+      <c r="J73" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="K73" s="13" t="s">
+      <c r="K73" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="28"/>
-      <c r="B74" s="31"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="17">
+      <c r="A74" s="18"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="2">
         <v>2</v>
       </c>
-      <c r="H74" s="24" t="s">
+      <c r="H74" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="I74" s="24" t="s">
+      <c r="I74" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="J74" s="31"/>
-      <c r="K74" s="8" t="s">
+      <c r="J74" s="14"/>
+      <c r="K74" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="26" t="s">
+      <c r="A75" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B75" s="29" t="s">
+      <c r="B75" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C75" s="29" t="s">
+      <c r="C75" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="D75" s="29" t="s">
+      <c r="D75" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="E75" s="29" t="s">
+      <c r="E75" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F75" s="29" t="s">
+      <c r="F75" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G75" s="16">
+      <c r="G75" s="10">
         <v>1</v>
       </c>
-      <c r="H75" s="11" t="s">
+      <c r="H75" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="I75" s="11" t="s">
+      <c r="I75" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J75" s="29" t="s">
+      <c r="J75" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K75" s="13" t="s">
+      <c r="K75" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="28"/>
-      <c r="B76" s="31"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="31"/>
-      <c r="E76" s="31"/>
-      <c r="F76" s="31"/>
-      <c r="G76" s="17">
+      <c r="A76" s="18"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="2">
         <v>2</v>
       </c>
-      <c r="H76" s="24" t="s">
+      <c r="H76" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I76" s="24" t="s">
+      <c r="I76" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="J76" s="31"/>
-      <c r="K76" s="8" t="s">
+      <c r="J76" s="14"/>
+      <c r="K76" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="26" t="s">
+      <c r="A77" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="B77" s="29" t="s">
+      <c r="B77" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C77" s="29" t="s">
+      <c r="C77" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="D77" s="29" t="s">
+      <c r="D77" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E77" s="29" t="s">
+      <c r="E77" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F77" s="29" t="s">
+      <c r="F77" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="G77" s="16">
+      <c r="G77" s="10">
         <v>1</v>
       </c>
-      <c r="H77" s="25" t="s">
+      <c r="H77" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="I77" s="11" t="s">
+      <c r="I77" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J77" s="29" t="s">
+      <c r="J77" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K77" s="13" t="s">
+      <c r="K77" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="27"/>
-      <c r="B78" s="30"/>
-      <c r="C78" s="30"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="30"/>
-      <c r="F78" s="30"/>
-      <c r="G78" s="10">
+      <c r="A78" s="17"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="3">
         <v>2</v>
       </c>
-      <c r="H78" s="23" t="s">
+      <c r="H78" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="I78" s="23" t="s">
+      <c r="I78" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="J78" s="30"/>
+      <c r="J78" s="15"/>
       <c r="K78" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="27"/>
-      <c r="B79" s="30"/>
-      <c r="C79" s="30"/>
-      <c r="D79" s="30"/>
-      <c r="E79" s="30"/>
-      <c r="F79" s="30"/>
-      <c r="G79" s="10">
+      <c r="A79" s="17"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="3">
         <v>3</v>
       </c>
-      <c r="H79" s="23" t="s">
+      <c r="H79" s="4" t="s">
         <v>140</v>
       </c>
       <c r="I79" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J79" s="30"/>
+      <c r="J79" s="15"/>
       <c r="K79" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="28"/>
-      <c r="B80" s="31"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="31"/>
-      <c r="F80" s="31"/>
-      <c r="G80" s="17">
+      <c r="A80" s="18"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="2">
         <v>4</v>
       </c>
-      <c r="H80" s="15" t="s">
+      <c r="H80" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="I80" s="7" t="s">
+      <c r="I80" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="J80" s="31"/>
-      <c r="K80" s="8" t="s">
+      <c r="J80" s="14"/>
+      <c r="K80" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="26" t="s">
+      <c r="A81" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="B81" s="29" t="s">
+      <c r="B81" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C81" s="29" t="s">
+      <c r="C81" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="D81" s="29" t="s">
+      <c r="D81" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="E81" s="29" t="s">
+      <c r="E81" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F81" s="29" t="s">
+      <c r="F81" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="G81" s="12">
+      <c r="G81" s="10">
         <v>1</v>
       </c>
-      <c r="H81" s="25" t="s">
+      <c r="H81" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="I81" s="11" t="s">
+      <c r="I81" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J81" s="29" t="s">
+      <c r="J81" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K81" s="13" t="s">
+      <c r="K81" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="27"/>
-      <c r="B82" s="30"/>
-      <c r="C82" s="30"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="30"/>
-      <c r="F82" s="30"/>
-      <c r="G82" s="10">
+      <c r="A82" s="17"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="3">
         <v>2</v>
       </c>
-      <c r="H82" s="23" t="s">
+      <c r="H82" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="I82" s="23" t="s">
+      <c r="I82" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="J82" s="30"/>
+      <c r="J82" s="15"/>
       <c r="K82" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="28"/>
-      <c r="B83" s="31"/>
-      <c r="C83" s="31"/>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="17">
+      <c r="A83" s="18"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="2">
         <v>3</v>
       </c>
-      <c r="H83" s="24" t="s">
+      <c r="H83" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="I83" s="7" t="s">
+      <c r="I83" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="J83" s="31"/>
-      <c r="K83" s="8" t="s">
+      <c r="J83" s="14"/>
+      <c r="K83" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="26" t="s">
+      <c r="A84" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="B84" s="29" t="s">
+      <c r="B84" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C84" s="29" t="s">
+      <c r="C84" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="D84" s="29" t="s">
+      <c r="D84" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="E84" s="29" t="s">
+      <c r="E84" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F84" s="29" t="s">
+      <c r="F84" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="G84" s="10">
+      <c r="G84" s="3">
         <v>1</v>
       </c>
-      <c r="H84" s="23" t="s">
+      <c r="H84" s="4" t="s">
         <v>137</v>
       </c>
       <c r="I84" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J84" s="29" t="s">
+      <c r="J84" s="13" t="s">
         <v>29</v>
       </c>
       <c r="K84" s="6" t="s">
@@ -3208,293 +3169,293 @@
       </c>
     </row>
     <row r="85" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="27"/>
-      <c r="B85" s="30"/>
-      <c r="C85" s="30"/>
-      <c r="D85" s="30"/>
-      <c r="E85" s="30"/>
-      <c r="F85" s="30"/>
-      <c r="G85" s="10">
+      <c r="A85" s="17"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="3">
         <v>2</v>
       </c>
-      <c r="H85" s="23" t="s">
+      <c r="H85" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="I85" s="23" t="s">
+      <c r="I85" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="J85" s="30"/>
+      <c r="J85" s="15"/>
       <c r="K85" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="27"/>
-      <c r="B86" s="30"/>
-      <c r="C86" s="30"/>
-      <c r="D86" s="30"/>
-      <c r="E86" s="30"/>
-      <c r="F86" s="30"/>
-      <c r="G86" s="10">
+      <c r="A86" s="17"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="3">
         <v>3</v>
       </c>
-      <c r="H86" s="23" t="s">
+      <c r="H86" s="4" t="s">
         <v>146</v>
       </c>
       <c r="I86" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J86" s="30"/>
+      <c r="J86" s="15"/>
       <c r="K86" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="28"/>
-      <c r="B87" s="31"/>
-      <c r="C87" s="31"/>
-      <c r="D87" s="31"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="17">
+      <c r="A87" s="18"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="2">
         <v>4</v>
       </c>
-      <c r="H87" s="15" t="s">
+      <c r="H87" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="I87" s="7" t="s">
+      <c r="I87" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="J87" s="31"/>
-      <c r="K87" s="8" t="s">
+      <c r="J87" s="14"/>
+      <c r="K87" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="26" t="s">
+      <c r="A88" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="B88" s="29" t="s">
+      <c r="B88" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C88" s="29" t="s">
+      <c r="C88" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="D88" s="29" t="s">
+      <c r="D88" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="E88" s="29" t="s">
+      <c r="E88" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F88" s="29" t="s">
+      <c r="F88" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="G88" s="16">
+      <c r="G88" s="10">
         <v>1</v>
       </c>
-      <c r="H88" s="25" t="s">
+      <c r="H88" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="I88" s="19" t="s">
+      <c r="I88" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J88" s="29" t="s">
+      <c r="J88" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="K88" s="13" t="s">
+      <c r="K88" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="27"/>
-      <c r="B89" s="30"/>
-      <c r="C89" s="30"/>
-      <c r="D89" s="30"/>
-      <c r="E89" s="30"/>
-      <c r="F89" s="30"/>
-      <c r="G89" s="10">
+      <c r="A89" s="17"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="3">
         <v>2</v>
       </c>
-      <c r="H89" s="23" t="s">
+      <c r="H89" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="I89" s="23" t="s">
+      <c r="I89" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="J89" s="30"/>
+      <c r="J89" s="15"/>
       <c r="K89" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="27"/>
-      <c r="B90" s="30"/>
-      <c r="C90" s="30"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="30"/>
-      <c r="F90" s="30"/>
-      <c r="G90" s="10">
+      <c r="A90" s="17"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="3">
         <v>3</v>
       </c>
-      <c r="H90" s="23" t="s">
+      <c r="H90" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="I90" s="21" t="s">
+      <c r="I90" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J90" s="30"/>
+      <c r="J90" s="15"/>
       <c r="K90" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="28"/>
-      <c r="B91" s="31"/>
-      <c r="C91" s="31"/>
-      <c r="D91" s="31"/>
-      <c r="E91" s="31"/>
-      <c r="F91" s="31"/>
-      <c r="G91" s="17">
+      <c r="A91" s="18"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="2">
         <v>4</v>
       </c>
-      <c r="H91" s="22" t="s">
+      <c r="H91" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="I91" s="20" t="s">
+      <c r="I91" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="J91" s="31"/>
-      <c r="K91" s="18" t="s">
+      <c r="J91" s="14"/>
+      <c r="K91" s="12" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="26" t="s">
+      <c r="A92" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B92" s="29" t="s">
+      <c r="B92" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C92" s="29" t="s">
+      <c r="C92" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="D92" s="29" t="s">
+      <c r="D92" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="E92" s="29" t="s">
+      <c r="E92" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F92" s="29" t="s">
+      <c r="F92" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="G92" s="16">
+      <c r="G92" s="10">
         <v>1</v>
       </c>
-      <c r="H92" s="25" t="s">
+      <c r="H92" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="I92" s="19" t="s">
+      <c r="I92" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J92" s="29" t="s">
+      <c r="J92" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="K92" s="13" t="s">
+      <c r="K92" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="27"/>
-      <c r="B93" s="30"/>
-      <c r="C93" s="30"/>
-      <c r="D93" s="30"/>
-      <c r="E93" s="30"/>
-      <c r="F93" s="30"/>
-      <c r="G93" s="10">
+      <c r="A93" s="17"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="3">
         <v>2</v>
       </c>
-      <c r="H93" s="23" t="s">
+      <c r="H93" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="I93" s="23" t="s">
+      <c r="I93" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="J93" s="30"/>
+      <c r="J93" s="15"/>
       <c r="K93" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="27"/>
-      <c r="B94" s="30"/>
-      <c r="C94" s="30"/>
-      <c r="D94" s="30"/>
-      <c r="E94" s="30"/>
-      <c r="F94" s="30"/>
-      <c r="G94" s="10">
+      <c r="A94" s="17"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="3">
         <v>3</v>
       </c>
-      <c r="H94" s="23" t="s">
+      <c r="H94" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="I94" s="21" t="s">
+      <c r="I94" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J94" s="30"/>
+      <c r="J94" s="15"/>
       <c r="K94" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="28"/>
-      <c r="B95" s="31"/>
-      <c r="C95" s="31"/>
-      <c r="D95" s="31"/>
-      <c r="E95" s="31"/>
-      <c r="F95" s="31"/>
-      <c r="G95" s="17">
+      <c r="A95" s="18"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="2">
         <v>4</v>
       </c>
-      <c r="H95" s="20" t="s">
+      <c r="H95" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="I95" s="20" t="s">
+      <c r="I95" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="J95" s="31"/>
-      <c r="K95" s="18" t="s">
+      <c r="J95" s="14"/>
+      <c r="K95" s="12" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="26" t="s">
+      <c r="A96" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="B96" s="29" t="s">
+      <c r="B96" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C96" s="29" t="s">
+      <c r="C96" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="D96" s="29" t="s">
+      <c r="D96" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="E96" s="29" t="s">
+      <c r="E96" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F96" s="29" t="s">
+      <c r="F96" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="G96" s="16">
+      <c r="G96" s="10">
         <v>1</v>
       </c>
-      <c r="H96" s="25" t="s">
+      <c r="H96" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="I96" s="19" t="s">
+      <c r="I96" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J96" s="29" t="s">
+      <c r="J96" s="13" t="s">
         <v>54</v>
       </c>
       <c r="K96" s="6" t="s">
@@ -3502,88 +3463,196 @@
       </c>
     </row>
     <row r="97" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="27"/>
-      <c r="B97" s="30"/>
-      <c r="C97" s="30"/>
-      <c r="D97" s="30"/>
-      <c r="E97" s="30"/>
-      <c r="F97" s="30"/>
-      <c r="G97" s="10">
+      <c r="A97" s="17"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="3">
         <v>2</v>
       </c>
-      <c r="H97" s="23" t="s">
+      <c r="H97" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="I97" s="23" t="s">
+      <c r="I97" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="J97" s="30"/>
+      <c r="J97" s="15"/>
       <c r="K97" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="27"/>
-      <c r="B98" s="30"/>
-      <c r="C98" s="30"/>
-      <c r="D98" s="30"/>
-      <c r="E98" s="30"/>
-      <c r="F98" s="30"/>
-      <c r="G98" s="10">
+      <c r="A98" s="17"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="3">
         <v>3</v>
       </c>
-      <c r="H98" s="23" t="s">
+      <c r="H98" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="I98" s="23" t="s">
+      <c r="I98" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="J98" s="30"/>
+      <c r="J98" s="15"/>
       <c r="K98" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="28"/>
-      <c r="B99" s="31"/>
-      <c r="C99" s="31"/>
-      <c r="D99" s="31"/>
-      <c r="E99" s="31"/>
-      <c r="F99" s="31"/>
-      <c r="G99" s="17">
+      <c r="A99" s="18"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="2">
         <v>4</v>
       </c>
-      <c r="H99" s="24" t="s">
+      <c r="H99" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="I99" s="24" t="s">
+      <c r="I99" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="J99" s="31"/>
-      <c r="K99" s="8" t="s">
+      <c r="J99" s="14"/>
+      <c r="K99" s="7" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="168">
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="F77:F80"/>
-    <mergeCell ref="E77:E80"/>
-    <mergeCell ref="J84:J87"/>
-    <mergeCell ref="J81:J83"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="E84:E87"/>
-    <mergeCell ref="F84:F87"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="E96:E99"/>
+    <mergeCell ref="F96:F99"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="J96:J99"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="D88:D91"/>
+    <mergeCell ref="E88:E91"/>
+    <mergeCell ref="F88:F91"/>
+    <mergeCell ref="J88:J91"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="E92:E95"/>
+    <mergeCell ref="F92:F95"/>
+    <mergeCell ref="J92:J95"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D40:D44"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="J36:J39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="E40:E44"/>
+    <mergeCell ref="F40:F44"/>
+    <mergeCell ref="J40:J44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="J26:J30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="E31:E35"/>
+    <mergeCell ref="F31:F35"/>
+    <mergeCell ref="J31:J35"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F26:F30"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="J2:J9"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="E10:E16"/>
+    <mergeCell ref="F10:F16"/>
+    <mergeCell ref="F2:F9"/>
+    <mergeCell ref="E2:E9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="J10:J16"/>
+    <mergeCell ref="J17:J21"/>
+    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="F55:F57"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="J58:J62"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="E58:E62"/>
+    <mergeCell ref="F58:F62"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="D63:D67"/>
+    <mergeCell ref="E63:E67"/>
+    <mergeCell ref="F63:F67"/>
+    <mergeCell ref="J63:J67"/>
     <mergeCell ref="A68:A72"/>
     <mergeCell ref="B68:B72"/>
     <mergeCell ref="C68:C72"/>
@@ -3608,132 +3677,24 @@
     <mergeCell ref="E75:E76"/>
     <mergeCell ref="J75:J76"/>
     <mergeCell ref="F73:F74"/>
-    <mergeCell ref="J58:J62"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="E58:E62"/>
-    <mergeCell ref="F58:F62"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="D63:D67"/>
-    <mergeCell ref="E63:E67"/>
-    <mergeCell ref="F63:F67"/>
-    <mergeCell ref="J63:J67"/>
-    <mergeCell ref="J55:J57"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="E55:E57"/>
-    <mergeCell ref="F55:F57"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="J50:J52"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="J2:J9"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="B10:B16"/>
-    <mergeCell ref="C10:C16"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="E10:E16"/>
-    <mergeCell ref="F10:F16"/>
-    <mergeCell ref="F2:F9"/>
-    <mergeCell ref="E2:E9"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="J10:J16"/>
-    <mergeCell ref="J17:J21"/>
-    <mergeCell ref="F17:F21"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F26:F30"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="J26:J30"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="E31:E35"/>
-    <mergeCell ref="F31:F35"/>
-    <mergeCell ref="J31:J35"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D40:D44"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="J36:J39"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="E40:E44"/>
-    <mergeCell ref="F40:F44"/>
-    <mergeCell ref="J40:J44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="E96:E99"/>
-    <mergeCell ref="F96:F99"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="J96:J99"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="D88:D91"/>
-    <mergeCell ref="E88:E91"/>
-    <mergeCell ref="F88:F91"/>
-    <mergeCell ref="J88:J91"/>
-    <mergeCell ref="A92:A95"/>
-    <mergeCell ref="B92:B95"/>
-    <mergeCell ref="C92:C95"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="E92:E95"/>
-    <mergeCell ref="F92:F95"/>
-    <mergeCell ref="J92:J95"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="F77:F80"/>
+    <mergeCell ref="E77:E80"/>
+    <mergeCell ref="J84:J87"/>
+    <mergeCell ref="J81:J83"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="F81:F83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="E84:E87"/>
+    <mergeCell ref="F84:F87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Casos de Prueba (Agustin Togni).xlsx
+++ b/Casos de Prueba (Agustin Togni).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agustin\Documents\A- Steam\AA- Mi vida\Tester QA\Coderhouse\Tester QA\Trabajo Final Coder (Agustin Togni)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61EAD44-4FEA-4FCD-A73F-159307B101F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD7C1C0-D7FC-4CE3-B3AB-93FBE86C12BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CF77210-3DB5-4DE8-AE2B-3CD5B9BCFE2C}"/>
   </bookViews>
@@ -681,7 +681,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -719,15 +719,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -737,13 +728,28 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -755,13 +761,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1080,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB0E70D-7AEF-47BF-ABA9-85E9543DF32A}">
   <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1132,22 +1135,22 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="17" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="3">
@@ -1159,7 +1162,7 @@
       <c r="I2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="17" t="s">
         <v>29</v>
       </c>
       <c r="K2" s="6" t="s">
@@ -1167,12 +1170,12 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
       <c r="G3" s="3">
         <v>2</v>
       </c>
@@ -1182,18 +1185,18 @@
       <c r="I3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="15"/>
+      <c r="J3" s="17"/>
       <c r="K3" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="3">
         <v>3</v>
       </c>
@@ -1203,18 +1206,18 @@
       <c r="I4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="15"/>
+      <c r="J4" s="17"/>
       <c r="K4" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
       <c r="G5" s="3">
         <v>4</v>
       </c>
@@ -1224,18 +1227,18 @@
       <c r="I5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="15"/>
+      <c r="J5" s="17"/>
       <c r="K5" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
       <c r="G6" s="3">
         <v>5</v>
       </c>
@@ -1245,18 +1248,18 @@
       <c r="I6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="15"/>
+      <c r="J6" s="17"/>
       <c r="K6" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
       <c r="G7" s="3">
         <v>6</v>
       </c>
@@ -1266,18 +1269,18 @@
       <c r="I7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="15"/>
+      <c r="J7" s="17"/>
       <c r="K7" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
       <c r="G8" s="4">
         <v>7</v>
       </c>
@@ -1287,18 +1290,18 @@
       <c r="I8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="15"/>
+      <c r="J8" s="17"/>
       <c r="K8" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="5">
         <v>8</v>
       </c>
@@ -1308,28 +1311,28 @@
       <c r="I9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="14"/>
+      <c r="J9" s="18"/>
       <c r="K9" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="16" t="s">
         <v>40</v>
       </c>
       <c r="G10" s="10">
@@ -1341,7 +1344,7 @@
       <c r="I10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="16" t="s">
         <v>29</v>
       </c>
       <c r="K10" s="11" t="s">
@@ -1349,12 +1352,12 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
       <c r="G11" s="3">
         <v>2</v>
       </c>
@@ -1364,18 +1367,18 @@
       <c r="I11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="15"/>
+      <c r="J11" s="17"/>
       <c r="K11" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
       <c r="G12" s="3">
         <v>3</v>
       </c>
@@ -1385,18 +1388,18 @@
       <c r="I12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J12" s="15"/>
+      <c r="J12" s="17"/>
       <c r="K12" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="3">
         <v>4</v>
       </c>
@@ -1406,18 +1409,18 @@
       <c r="I13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="15"/>
+      <c r="J13" s="17"/>
       <c r="K13" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
       <c r="G14" s="3">
         <v>5</v>
       </c>
@@ -1427,18 +1430,18 @@
       <c r="I14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="15"/>
+      <c r="J14" s="17"/>
       <c r="K14" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
       <c r="G15" s="3">
         <v>6</v>
       </c>
@@ -1448,18 +1451,18 @@
       <c r="I15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="15"/>
+      <c r="J15" s="17"/>
       <c r="K15" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
       <c r="G16" s="2">
         <v>7</v>
       </c>
@@ -1469,28 +1472,28 @@
       <c r="I16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J16" s="14"/>
+      <c r="J16" s="18"/>
       <c r="K16" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="16" t="s">
         <v>50</v>
       </c>
       <c r="G17" s="10">
@@ -1502,7 +1505,7 @@
       <c r="I17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="13" t="s">
+      <c r="J17" s="16" t="s">
         <v>54</v>
       </c>
       <c r="K17" s="11" t="s">
@@ -1510,12 +1513,12 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
       <c r="G18" s="3">
         <v>2</v>
       </c>
@@ -1525,18 +1528,18 @@
       <c r="I18" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J18" s="15"/>
+      <c r="J18" s="17"/>
       <c r="K18" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
       <c r="G19" s="3">
         <v>3</v>
       </c>
@@ -1546,18 +1549,18 @@
       <c r="I19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J19" s="15"/>
+      <c r="J19" s="17"/>
       <c r="K19" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
       <c r="G20" s="3">
         <v>4</v>
       </c>
@@ -1567,18 +1570,18 @@
       <c r="I20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J20" s="15"/>
+      <c r="J20" s="17"/>
       <c r="K20" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
       <c r="G21" s="2">
         <v>5</v>
       </c>
@@ -1588,28 +1591,28 @@
       <c r="I21" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J21" s="14"/>
+      <c r="J21" s="18"/>
       <c r="K21" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="16" t="s">
         <v>58</v>
       </c>
       <c r="G22" s="10">
@@ -1621,7 +1624,7 @@
       <c r="I22" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="13" t="s">
+      <c r="J22" s="16" t="s">
         <v>61</v>
       </c>
       <c r="K22" s="11" t="s">
@@ -1629,12 +1632,12 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
       <c r="G23" s="3">
         <v>2</v>
       </c>
@@ -1644,18 +1647,18 @@
       <c r="I23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J23" s="15"/>
+      <c r="J23" s="17"/>
       <c r="K23" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
       <c r="G24" s="3">
         <v>3</v>
       </c>
@@ -1665,18 +1668,18 @@
       <c r="I24" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J24" s="15"/>
+      <c r="J24" s="17"/>
       <c r="K24" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
       <c r="G25" s="2">
         <v>4</v>
       </c>
@@ -1686,28 +1689,28 @@
       <c r="I25" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J25" s="14"/>
+      <c r="J25" s="18"/>
       <c r="K25" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="16" t="s">
         <v>50</v>
       </c>
       <c r="G26" s="3">
@@ -1719,7 +1722,7 @@
       <c r="I26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="13" t="s">
+      <c r="J26" s="16" t="s">
         <v>54</v>
       </c>
       <c r="K26" s="11" t="s">
@@ -1727,12 +1730,12 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
       <c r="G27" s="3">
         <v>2</v>
       </c>
@@ -1742,18 +1745,18 @@
       <c r="I27" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J27" s="15"/>
+      <c r="J27" s="17"/>
       <c r="K27" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
       <c r="G28" s="3">
         <v>3</v>
       </c>
@@ -1763,18 +1766,18 @@
       <c r="I28" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J28" s="15"/>
+      <c r="J28" s="17"/>
       <c r="K28" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
       <c r="G29" s="3">
         <v>4</v>
       </c>
@@ -1784,18 +1787,18 @@
       <c r="I29" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J29" s="15"/>
+      <c r="J29" s="17"/>
       <c r="K29" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
       <c r="G30" s="2">
         <v>5</v>
       </c>
@@ -1805,28 +1808,28 @@
       <c r="I30" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="J30" s="14"/>
+      <c r="J30" s="18"/>
       <c r="K30" s="12" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="16" t="s">
         <v>81</v>
       </c>
       <c r="G31" s="3">
@@ -1838,7 +1841,7 @@
       <c r="I31" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J31" s="13" t="s">
+      <c r="J31" s="16" t="s">
         <v>54</v>
       </c>
       <c r="K31" s="11" t="s">
@@ -1846,12 +1849,12 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
       <c r="G32" s="3">
         <v>2</v>
       </c>
@@ -1861,18 +1864,18 @@
       <c r="I32" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J32" s="15"/>
+      <c r="J32" s="17"/>
       <c r="K32" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
       <c r="G33" s="3">
         <v>3</v>
       </c>
@@ -1882,18 +1885,18 @@
       <c r="I33" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J33" s="15"/>
+      <c r="J33" s="17"/>
       <c r="K33" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
       <c r="G34" s="3">
         <v>4</v>
       </c>
@@ -1903,18 +1906,18 @@
       <c r="I34" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J34" s="15"/>
+      <c r="J34" s="17"/>
       <c r="K34" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
       <c r="G35" s="2">
         <v>5</v>
       </c>
@@ -1924,28 +1927,28 @@
       <c r="I35" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="J35" s="14"/>
+      <c r="J35" s="18"/>
       <c r="K35" s="12" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="16" t="s">
         <v>58</v>
       </c>
       <c r="G36" s="10">
@@ -1957,7 +1960,7 @@
       <c r="I36" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J36" s="22" t="s">
+      <c r="J36" s="24" t="s">
         <v>29</v>
       </c>
       <c r="K36" s="11" t="s">
@@ -1965,12 +1968,12 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
       <c r="G37" s="3">
         <v>2</v>
       </c>
@@ -1980,18 +1983,18 @@
       <c r="I37" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J37" s="23"/>
+      <c r="J37" s="25"/>
       <c r="K37" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
       <c r="G38" s="3">
         <v>3</v>
       </c>
@@ -2001,18 +2004,18 @@
       <c r="I38" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J38" s="23"/>
+      <c r="J38" s="25"/>
       <c r="K38" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
       <c r="G39" s="2">
         <v>4</v>
       </c>
@@ -2022,28 +2025,28 @@
       <c r="I39" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="J39" s="24"/>
+      <c r="J39" s="26"/>
       <c r="K39" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="27" t="s">
+      <c r="A40" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="16" t="s">
         <v>40</v>
       </c>
       <c r="G40" s="10">
@@ -2055,7 +2058,7 @@
       <c r="I40" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J40" s="13" t="s">
+      <c r="J40" s="16" t="s">
         <v>54</v>
       </c>
       <c r="K40" s="11" t="s">
@@ -2063,12 +2066,12 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
       <c r="G41" s="3">
         <v>2</v>
       </c>
@@ -2078,18 +2081,18 @@
       <c r="I41" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J41" s="15"/>
+      <c r="J41" s="17"/>
       <c r="K41" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
       <c r="G42" s="3">
         <v>3</v>
       </c>
@@ -2099,18 +2102,18 @@
       <c r="I42" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J42" s="15"/>
+      <c r="J42" s="17"/>
       <c r="K42" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
       <c r="G43" s="3">
         <v>4</v>
       </c>
@@ -2120,18 +2123,18 @@
       <c r="I43" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J43" s="15"/>
+      <c r="J43" s="17"/>
       <c r="K43" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="26"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
       <c r="G44" s="2">
         <v>5</v>
       </c>
@@ -2141,7 +2144,7 @@
       <c r="I44" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="J44" s="14"/>
+      <c r="J44" s="18"/>
       <c r="K44" s="7" t="s">
         <v>30</v>
       </c>
@@ -2150,19 +2153,19 @@
       <c r="A45" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F45" s="13" t="s">
+      <c r="F45" s="16" t="s">
         <v>58</v>
       </c>
       <c r="G45" s="10">
@@ -2174,7 +2177,7 @@
       <c r="I45" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J45" s="13" t="s">
+      <c r="J45" s="16" t="s">
         <v>61</v>
       </c>
       <c r="K45" s="11" t="s">
@@ -2182,12 +2185,12 @@
       </c>
     </row>
     <row r="46" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="21"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
       <c r="G46" s="2">
         <v>2</v>
       </c>
@@ -2197,28 +2200,28 @@
       <c r="I46" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J46" s="14"/>
+      <c r="J46" s="18"/>
       <c r="K46" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="D47" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="E47" s="15" t="s">
+      <c r="E47" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F47" s="15" t="s">
+      <c r="F47" s="17" t="s">
         <v>58</v>
       </c>
       <c r="G47" s="3">
@@ -2230,7 +2233,7 @@
       <c r="I47" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J47" s="15" t="s">
+      <c r="J47" s="17" t="s">
         <v>54</v>
       </c>
       <c r="K47" s="6" t="s">
@@ -2238,12 +2241,12 @@
       </c>
     </row>
     <row r="48" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
+      <c r="A48" s="27"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
       <c r="G48" s="3">
         <v>2</v>
       </c>
@@ -2253,18 +2256,18 @@
       <c r="I48" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="J48" s="15"/>
+      <c r="J48" s="17"/>
       <c r="K48" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="21"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
       <c r="G49" s="2">
         <v>3</v>
       </c>
@@ -2274,7 +2277,7 @@
       <c r="I49" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="J49" s="14"/>
+      <c r="J49" s="18"/>
       <c r="K49" s="7" t="s">
         <v>30</v>
       </c>
@@ -2283,19 +2286,19 @@
       <c r="A50" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="E50" s="13" t="s">
+      <c r="E50" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F50" s="13" t="s">
+      <c r="F50" s="16" t="s">
         <v>58</v>
       </c>
       <c r="G50" s="3">
@@ -2307,7 +2310,7 @@
       <c r="I50" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J50" s="15" t="s">
+      <c r="J50" s="17" t="s">
         <v>54</v>
       </c>
       <c r="K50" s="6" t="s">
@@ -2315,12 +2318,12 @@
       </c>
     </row>
     <row r="51" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="20"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
+      <c r="A51" s="27"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
       <c r="G51" s="3">
         <v>2</v>
       </c>
@@ -2330,18 +2333,18 @@
       <c r="I51" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="J51" s="15"/>
+      <c r="J51" s="17"/>
       <c r="K51" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="21"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
       <c r="G52" s="2">
         <v>3</v>
       </c>
@@ -2351,7 +2354,7 @@
       <c r="I52" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="J52" s="14"/>
+      <c r="J52" s="18"/>
       <c r="K52" s="7" t="s">
         <v>30</v>
       </c>
@@ -2360,19 +2363,19 @@
       <c r="A53" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E53" s="13" t="s">
+      <c r="E53" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F53" s="13" t="s">
+      <c r="F53" s="16" t="s">
         <v>15</v>
       </c>
       <c r="G53" s="3">
@@ -2384,7 +2387,7 @@
       <c r="I53" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J53" s="13" t="s">
+      <c r="J53" s="16" t="s">
         <v>29</v>
       </c>
       <c r="K53" s="6" t="s">
@@ -2392,12 +2395,12 @@
       </c>
     </row>
     <row r="54" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="21"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
       <c r="G54" s="2">
         <v>2</v>
       </c>
@@ -2407,7 +2410,7 @@
       <c r="I54" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J54" s="14"/>
+      <c r="J54" s="18"/>
       <c r="K54" s="7" t="s">
         <v>30</v>
       </c>
@@ -2416,19 +2419,19 @@
       <c r="A55" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D55" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="E55" s="13" t="s">
+      <c r="E55" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F55" s="13" t="s">
+      <c r="F55" s="16" t="s">
         <v>15</v>
       </c>
       <c r="G55" s="10">
@@ -2440,7 +2443,7 @@
       <c r="I55" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J55" s="13" t="s">
+      <c r="J55" s="16" t="s">
         <v>29</v>
       </c>
       <c r="K55" s="6" t="s">
@@ -2448,12 +2451,12 @@
       </c>
     </row>
     <row r="56" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="20"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
+      <c r="A56" s="27"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
       <c r="G56" s="3">
         <v>2</v>
       </c>
@@ -2463,18 +2466,18 @@
       <c r="I56" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="J56" s="15"/>
+      <c r="J56" s="17"/>
       <c r="K56" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="21"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
       <c r="G57" s="2">
         <v>3</v>
       </c>
@@ -2484,28 +2487,28 @@
       <c r="I57" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="J57" s="14"/>
+      <c r="J57" s="18"/>
       <c r="K57" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="20" t="s">
+      <c r="A58" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="D58" s="15" t="s">
+      <c r="D58" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="E58" s="13" t="s">
+      <c r="E58" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F58" s="13" t="s">
+      <c r="F58" s="16" t="s">
         <v>40</v>
       </c>
       <c r="G58" s="10">
@@ -2517,7 +2520,7 @@
       <c r="I58" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J58" s="13" t="s">
+      <c r="J58" s="16" t="s">
         <v>54</v>
       </c>
       <c r="K58" s="11" t="s">
@@ -2525,12 +2528,12 @@
       </c>
     </row>
     <row r="59" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="20"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
+      <c r="A59" s="27"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
       <c r="G59" s="3">
         <v>2</v>
       </c>
@@ -2540,18 +2543,18 @@
       <c r="I59" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J59" s="15"/>
+      <c r="J59" s="17"/>
       <c r="K59" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="20"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
+      <c r="A60" s="27"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
       <c r="G60" s="3">
         <v>3</v>
       </c>
@@ -2561,18 +2564,18 @@
       <c r="I60" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="J60" s="15"/>
+      <c r="J60" s="17"/>
       <c r="K60" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="20"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
+      <c r="A61" s="27"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
       <c r="G61" s="3">
         <v>4</v>
       </c>
@@ -2582,18 +2585,18 @@
       <c r="I61" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J61" s="15"/>
+      <c r="J61" s="17"/>
       <c r="K61" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="21"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
+      <c r="A62" s="20"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
       <c r="G62" s="2">
         <v>5</v>
       </c>
@@ -2603,28 +2606,28 @@
       <c r="I62" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="J62" s="14"/>
+      <c r="J62" s="18"/>
       <c r="K62" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="20" t="s">
+      <c r="A63" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C63" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="D63" s="15" t="s">
+      <c r="D63" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="E63" s="13" t="s">
+      <c r="E63" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F63" s="13" t="s">
+      <c r="F63" s="16" t="s">
         <v>40</v>
       </c>
       <c r="G63" s="10">
@@ -2636,7 +2639,7 @@
       <c r="I63" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J63" s="13" t="s">
+      <c r="J63" s="16" t="s">
         <v>54</v>
       </c>
       <c r="K63" s="11" t="s">
@@ -2644,12 +2647,12 @@
       </c>
     </row>
     <row r="64" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="20"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
+      <c r="A64" s="27"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
       <c r="G64" s="3">
         <v>2</v>
       </c>
@@ -2659,18 +2662,18 @@
       <c r="I64" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J64" s="15"/>
+      <c r="J64" s="17"/>
       <c r="K64" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="20"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
+      <c r="A65" s="27"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
       <c r="G65" s="3">
         <v>3</v>
       </c>
@@ -2680,18 +2683,18 @@
       <c r="I65" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="J65" s="15"/>
+      <c r="J65" s="17"/>
       <c r="K65" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="20"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
+      <c r="A66" s="27"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
       <c r="G66" s="3">
         <v>4</v>
       </c>
@@ -2701,18 +2704,18 @@
       <c r="I66" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J66" s="15"/>
+      <c r="J66" s="17"/>
       <c r="K66" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="21"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
+      <c r="A67" s="20"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
       <c r="G67" s="2">
         <v>5</v>
       </c>
@@ -2722,7 +2725,7 @@
       <c r="I67" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="J67" s="14"/>
+      <c r="J67" s="18"/>
       <c r="K67" s="7" t="s">
         <v>30</v>
       </c>
@@ -2731,19 +2734,19 @@
       <c r="A68" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B68" s="13" t="s">
+      <c r="B68" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C68" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D68" s="13" t="s">
+      <c r="D68" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="E68" s="13" t="s">
+      <c r="E68" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F68" s="13" t="s">
+      <c r="F68" s="16" t="s">
         <v>81</v>
       </c>
       <c r="G68" s="10">
@@ -2755,7 +2758,7 @@
       <c r="I68" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J68" s="13" t="s">
+      <c r="J68" s="16" t="s">
         <v>54</v>
       </c>
       <c r="K68" s="11" t="s">
@@ -2763,12 +2766,12 @@
       </c>
     </row>
     <row r="69" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="20"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
+      <c r="A69" s="27"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
       <c r="G69" s="3">
         <v>2</v>
       </c>
@@ -2778,18 +2781,18 @@
       <c r="I69" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J69" s="15"/>
+      <c r="J69" s="17"/>
       <c r="K69" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="20"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
+      <c r="A70" s="27"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
       <c r="G70" s="3">
         <v>3</v>
       </c>
@@ -2799,18 +2802,18 @@
       <c r="I70" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="J70" s="15"/>
+      <c r="J70" s="17"/>
       <c r="K70" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="20"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
+      <c r="A71" s="27"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
       <c r="G71" s="3">
         <v>4</v>
       </c>
@@ -2820,18 +2823,18 @@
       <c r="I71" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J71" s="15"/>
+      <c r="J71" s="17"/>
       <c r="K71" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="21"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
+      <c r="A72" s="20"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
       <c r="G72" s="2">
         <v>5</v>
       </c>
@@ -2841,28 +2844,28 @@
       <c r="I72" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="J72" s="14"/>
+      <c r="J72" s="18"/>
       <c r="K72" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="16" t="s">
+      <c r="A73" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B73" s="13" t="s">
+      <c r="B73" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C73" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="D73" s="13" t="s">
+      <c r="D73" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="E73" s="13" t="s">
+      <c r="E73" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F73" s="13" t="s">
+      <c r="F73" s="16" t="s">
         <v>58</v>
       </c>
       <c r="G73" s="10">
@@ -2874,7 +2877,7 @@
       <c r="I73" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J73" s="13" t="s">
+      <c r="J73" s="16" t="s">
         <v>54</v>
       </c>
       <c r="K73" s="11" t="s">
@@ -2882,12 +2885,12 @@
       </c>
     </row>
     <row r="74" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="18"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
+      <c r="A74" s="15"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
       <c r="G74" s="2">
         <v>2</v>
       </c>
@@ -2897,28 +2900,28 @@
       <c r="I74" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="J74" s="14"/>
+      <c r="J74" s="18"/>
       <c r="K74" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="16" t="s">
+      <c r="A75" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="B75" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C75" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D75" s="13" t="s">
+      <c r="D75" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="E75" s="13" t="s">
+      <c r="E75" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F75" s="13" t="s">
+      <c r="F75" s="16" t="s">
         <v>58</v>
       </c>
       <c r="G75" s="10">
@@ -2930,7 +2933,7 @@
       <c r="I75" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J75" s="13" t="s">
+      <c r="J75" s="16" t="s">
         <v>29</v>
       </c>
       <c r="K75" s="11" t="s">
@@ -2938,12 +2941,12 @@
       </c>
     </row>
     <row r="76" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="18"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
+      <c r="A76" s="15"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
       <c r="G76" s="2">
         <v>2</v>
       </c>
@@ -2953,28 +2956,28 @@
       <c r="I76" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="J76" s="14"/>
+      <c r="J76" s="18"/>
       <c r="K76" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="16" t="s">
+      <c r="A77" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B77" s="13" t="s">
+      <c r="B77" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C77" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="D77" s="13" t="s">
+      <c r="D77" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="E77" s="13" t="s">
+      <c r="E77" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="F77" s="13" t="s">
+      <c r="F77" s="16" t="s">
         <v>143</v>
       </c>
       <c r="G77" s="10">
@@ -2986,7 +2989,7 @@
       <c r="I77" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J77" s="13" t="s">
+      <c r="J77" s="16" t="s">
         <v>29</v>
       </c>
       <c r="K77" s="11" t="s">
@@ -2994,12 +2997,12 @@
       </c>
     </row>
     <row r="78" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="17"/>
-      <c r="B78" s="15"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
       <c r="G78" s="3">
         <v>2</v>
       </c>
@@ -3009,18 +3012,18 @@
       <c r="I78" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="J78" s="15"/>
+      <c r="J78" s="17"/>
       <c r="K78" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="17"/>
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
       <c r="G79" s="3">
         <v>3</v>
       </c>
@@ -3030,18 +3033,18 @@
       <c r="I79" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J79" s="15"/>
+      <c r="J79" s="17"/>
       <c r="K79" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="18"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
       <c r="G80" s="2">
         <v>4</v>
       </c>
@@ -3051,28 +3054,28 @@
       <c r="I80" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="J80" s="14"/>
+      <c r="J80" s="18"/>
       <c r="K80" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="16" t="s">
+      <c r="A81" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C81" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="D81" s="13" t="s">
+      <c r="D81" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="E81" s="13" t="s">
+      <c r="E81" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="F81" s="13" t="s">
+      <c r="F81" s="16" t="s">
         <v>136</v>
       </c>
       <c r="G81" s="10">
@@ -3084,7 +3087,7 @@
       <c r="I81" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J81" s="13" t="s">
+      <c r="J81" s="16" t="s">
         <v>29</v>
       </c>
       <c r="K81" s="11" t="s">
@@ -3092,12 +3095,12 @@
       </c>
     </row>
     <row r="82" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="17"/>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
+      <c r="A82" s="14"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
       <c r="G82" s="3">
         <v>2</v>
       </c>
@@ -3107,18 +3110,18 @@
       <c r="I82" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="J82" s="15"/>
+      <c r="J82" s="17"/>
       <c r="K82" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="18"/>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
+      <c r="A83" s="15"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
       <c r="G83" s="2">
         <v>3</v>
       </c>
@@ -3128,28 +3131,28 @@
       <c r="I83" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="J83" s="14"/>
+      <c r="J83" s="18"/>
       <c r="K83" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="16" t="s">
+      <c r="A84" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B84" s="13" t="s">
+      <c r="B84" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C84" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="D84" s="13" t="s">
+      <c r="D84" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="E84" s="13" t="s">
+      <c r="E84" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="F84" s="13" t="s">
+      <c r="F84" s="16" t="s">
         <v>150</v>
       </c>
       <c r="G84" s="3">
@@ -3161,7 +3164,7 @@
       <c r="I84" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J84" s="13" t="s">
+      <c r="J84" s="16" t="s">
         <v>29</v>
       </c>
       <c r="K84" s="6" t="s">
@@ -3169,12 +3172,12 @@
       </c>
     </row>
     <row r="85" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="17"/>
-      <c r="B85" s="15"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
+      <c r="A85" s="14"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
       <c r="G85" s="3">
         <v>2</v>
       </c>
@@ -3184,18 +3187,18 @@
       <c r="I85" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="J85" s="15"/>
+      <c r="J85" s="17"/>
       <c r="K85" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="17"/>
-      <c r="B86" s="15"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
+      <c r="A86" s="14"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
       <c r="G86" s="3">
         <v>3</v>
       </c>
@@ -3205,18 +3208,18 @@
       <c r="I86" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J86" s="15"/>
+      <c r="J86" s="17"/>
       <c r="K86" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="18"/>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
+      <c r="A87" s="15"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
       <c r="G87" s="2">
         <v>4</v>
       </c>
@@ -3226,28 +3229,28 @@
       <c r="I87" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="J87" s="14"/>
+      <c r="J87" s="18"/>
       <c r="K87" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="16" t="s">
+      <c r="A88" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="B88" s="13" t="s">
+      <c r="B88" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C88" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="D88" s="13" t="s">
+      <c r="D88" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="E88" s="13" t="s">
+      <c r="E88" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="F88" s="13" t="s">
+      <c r="F88" s="16" t="s">
         <v>160</v>
       </c>
       <c r="G88" s="10">
@@ -3259,7 +3262,7 @@
       <c r="I88" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J88" s="13" t="s">
+      <c r="J88" s="16" t="s">
         <v>54</v>
       </c>
       <c r="K88" s="11" t="s">
@@ -3267,12 +3270,12 @@
       </c>
     </row>
     <row r="89" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="17"/>
-      <c r="B89" s="15"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
+      <c r="A89" s="14"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
       <c r="G89" s="3">
         <v>2</v>
       </c>
@@ -3282,18 +3285,18 @@
       <c r="I89" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="J89" s="15"/>
+      <c r="J89" s="17"/>
       <c r="K89" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="17"/>
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
+      <c r="A90" s="14"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
       <c r="G90" s="3">
         <v>3</v>
       </c>
@@ -3303,18 +3306,18 @@
       <c r="I90" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J90" s="15"/>
+      <c r="J90" s="17"/>
       <c r="K90" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="18"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
+      <c r="A91" s="15"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
       <c r="G91" s="2">
         <v>4</v>
       </c>
@@ -3324,28 +3327,28 @@
       <c r="I91" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="J91" s="14"/>
+      <c r="J91" s="18"/>
       <c r="K91" s="12" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="16" t="s">
+      <c r="A92" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="B92" s="13" t="s">
+      <c r="B92" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C92" s="13" t="s">
+      <c r="C92" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="D92" s="13" t="s">
+      <c r="D92" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="E92" s="13" t="s">
+      <c r="E92" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="F92" s="13" t="s">
+      <c r="F92" s="16" t="s">
         <v>166</v>
       </c>
       <c r="G92" s="10">
@@ -3357,7 +3360,7 @@
       <c r="I92" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J92" s="13" t="s">
+      <c r="J92" s="16" t="s">
         <v>54</v>
       </c>
       <c r="K92" s="11" t="s">
@@ -3365,12 +3368,12 @@
       </c>
     </row>
     <row r="93" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="17"/>
-      <c r="B93" s="15"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="15"/>
-      <c r="F93" s="15"/>
+      <c r="A93" s="14"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
       <c r="G93" s="3">
         <v>2</v>
       </c>
@@ -3380,18 +3383,18 @@
       <c r="I93" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="J93" s="15"/>
+      <c r="J93" s="17"/>
       <c r="K93" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="17"/>
-      <c r="B94" s="15"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="15"/>
+      <c r="A94" s="14"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
       <c r="G94" s="3">
         <v>3</v>
       </c>
@@ -3401,18 +3404,18 @@
       <c r="I94" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J94" s="15"/>
+      <c r="J94" s="17"/>
       <c r="K94" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="18"/>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
+      <c r="A95" s="15"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="18"/>
       <c r="G95" s="2">
         <v>4</v>
       </c>
@@ -3422,28 +3425,28 @@
       <c r="I95" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="J95" s="14"/>
+      <c r="J95" s="18"/>
       <c r="K95" s="12" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="16" t="s">
+      <c r="A96" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="B96" s="13" t="s">
+      <c r="B96" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C96" s="13" t="s">
+      <c r="C96" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="D96" s="13" t="s">
+      <c r="D96" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="E96" s="13" t="s">
+      <c r="E96" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="F96" s="13" t="s">
+      <c r="F96" s="16" t="s">
         <v>136</v>
       </c>
       <c r="G96" s="10">
@@ -3455,7 +3458,7 @@
       <c r="I96" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J96" s="13" t="s">
+      <c r="J96" s="16" t="s">
         <v>54</v>
       </c>
       <c r="K96" s="6" t="s">
@@ -3463,12 +3466,12 @@
       </c>
     </row>
     <row r="97" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="17"/>
-      <c r="B97" s="15"/>
-      <c r="C97" s="15"/>
-      <c r="D97" s="15"/>
-      <c r="E97" s="15"/>
-      <c r="F97" s="15"/>
+      <c r="A97" s="14"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
       <c r="G97" s="3">
         <v>2</v>
       </c>
@@ -3478,18 +3481,18 @@
       <c r="I97" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="J97" s="15"/>
+      <c r="J97" s="17"/>
       <c r="K97" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="17"/>
-      <c r="B98" s="15"/>
-      <c r="C98" s="15"/>
-      <c r="D98" s="15"/>
-      <c r="E98" s="15"/>
-      <c r="F98" s="15"/>
+      <c r="A98" s="14"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
       <c r="G98" s="3">
         <v>3</v>
       </c>
@@ -3499,18 +3502,18 @@
       <c r="I98" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="J98" s="15"/>
+      <c r="J98" s="17"/>
       <c r="K98" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="18"/>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
+      <c r="A99" s="15"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
       <c r="G99" s="2">
         <v>4</v>
       </c>
@@ -3520,80 +3523,90 @@
       <c r="I99" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="J99" s="14"/>
+      <c r="J99" s="18"/>
       <c r="K99" s="7" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="168">
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="E96:E99"/>
-    <mergeCell ref="F96:F99"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="J96:J99"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="D88:D91"/>
-    <mergeCell ref="E88:E91"/>
-    <mergeCell ref="F88:F91"/>
-    <mergeCell ref="J88:J91"/>
-    <mergeCell ref="A92:A95"/>
-    <mergeCell ref="B92:B95"/>
-    <mergeCell ref="C92:C95"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="E92:E95"/>
-    <mergeCell ref="F92:F95"/>
-    <mergeCell ref="J92:J95"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D40:D44"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="J36:J39"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="E40:E44"/>
-    <mergeCell ref="F40:F44"/>
-    <mergeCell ref="J40:J44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="J26:J30"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="E31:E35"/>
-    <mergeCell ref="F31:F35"/>
-    <mergeCell ref="J31:J35"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F26:F30"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="F77:F80"/>
+    <mergeCell ref="E77:E80"/>
+    <mergeCell ref="J84:J87"/>
+    <mergeCell ref="J81:J83"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="F81:F83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="E84:E87"/>
+    <mergeCell ref="F84:F87"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="C68:C72"/>
+    <mergeCell ref="D68:D72"/>
+    <mergeCell ref="E68:E72"/>
+    <mergeCell ref="F68:F72"/>
+    <mergeCell ref="J68:J72"/>
+    <mergeCell ref="J77:J80"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="J58:J62"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="E58:E62"/>
+    <mergeCell ref="F58:F62"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="D63:D67"/>
+    <mergeCell ref="E63:E67"/>
+    <mergeCell ref="F63:F67"/>
+    <mergeCell ref="J63:J67"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="F55:F57"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="E50:E52"/>
     <mergeCell ref="J47:J49"/>
     <mergeCell ref="A47:A49"/>
     <mergeCell ref="B47:B49"/>
@@ -3618,83 +3631,73 @@
     <mergeCell ref="F17:F21"/>
     <mergeCell ref="E17:E21"/>
     <mergeCell ref="B2:B9"/>
-    <mergeCell ref="J55:J57"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="E55:E57"/>
-    <mergeCell ref="F55:F57"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="J50:J52"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="J58:J62"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="E58:E62"/>
-    <mergeCell ref="F58:F62"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="D63:D67"/>
-    <mergeCell ref="E63:E67"/>
-    <mergeCell ref="F63:F67"/>
-    <mergeCell ref="J63:J67"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="B68:B72"/>
-    <mergeCell ref="C68:C72"/>
-    <mergeCell ref="D68:D72"/>
-    <mergeCell ref="E68:E72"/>
-    <mergeCell ref="F68:F72"/>
-    <mergeCell ref="J68:J72"/>
-    <mergeCell ref="J77:J80"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="F77:F80"/>
-    <mergeCell ref="E77:E80"/>
-    <mergeCell ref="J84:J87"/>
-    <mergeCell ref="J81:J83"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="E84:E87"/>
-    <mergeCell ref="F84:F87"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F26:F30"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="J26:J30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="E31:E35"/>
+    <mergeCell ref="F31:F35"/>
+    <mergeCell ref="J31:J35"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D40:D44"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="J36:J39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="E40:E44"/>
+    <mergeCell ref="F40:F44"/>
+    <mergeCell ref="J40:J44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="E96:E99"/>
+    <mergeCell ref="F96:F99"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="J96:J99"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="D88:D91"/>
+    <mergeCell ref="E88:E91"/>
+    <mergeCell ref="F88:F91"/>
+    <mergeCell ref="J88:J91"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="E92:E95"/>
+    <mergeCell ref="F92:F95"/>
+    <mergeCell ref="J92:J95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
